--- a/config_debug/jika_lottery_server.xlsx
+++ b/config_debug/jika_lottery_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="real_cfg" sheetId="1" r:id="rId1"/>
     <sheet name="false_cfg" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>award_id</t>
   </si>
@@ -327,11 +327,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>召唤*3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_summon_fish</t>
+    <t>30万鱼币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +675,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,10 +728,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2500</v>

--- a/config_debug/jika_lottery_server.xlsx
+++ b/config_debug/jika_lottery_server.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="real_cfg" sheetId="1" r:id="rId1"/>
-    <sheet name="false_cfg" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>award_id</t>
   </si>
@@ -34,32 +33,27 @@
     <t>award_type|奖励类型</t>
   </si>
   <si>
-    <t>power|权重</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <t>话费碎片*100</t>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>40万小游戏币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>198</t>
-    </r>
+    <t>real_power|权重</t>
+  </si>
+  <si>
+    <t>false_power|权重</t>
+  </si>
+  <si>
+    <t>permission_key|权限名字</t>
+  </si>
+  <si>
+    <t>40万鱼币</t>
+  </si>
+  <si>
+    <t>discount_fish_coin</t>
+  </si>
+  <si>
+    <t>30万鱼币</t>
+  </si>
+  <si>
+    <t>45万鱼币</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -69,40 +63,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红包券</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>50</t>
     </r>
     <r>
@@ -116,12 +76,20 @@
       </rPr>
       <t>万金币</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1000</t>
-    </r>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
+    <t>60万鱼币</t>
+  </si>
+  <si>
+    <t>话费碎片*100</t>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -131,13 +99,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>万金币</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>50</t>
     </r>
     <r>
       <rPr>
@@ -159,38 +121,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>万鲸币</t>
+      <t>万鱼币</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40万小游戏币</t>
-  </si>
-  <si>
-    <t>45万小游戏币</t>
-  </si>
-  <si>
-    <t>60万小游戏币</t>
-  </si>
-  <si>
-    <t>60万小游戏币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_coin</t>
   </si>
   <si>
     <r>
-      <t>10</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
     </r>
     <r>
       <rPr>
@@ -201,7 +148,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>万金币</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19800</t>
     </r>
     <r>
       <rPr>
@@ -212,19 +172,46 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0万鲸币</t>
+      <t>福利券</t>
     </r>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40万小游戏币</t>
+  </si>
+  <si>
+    <t>30万小游戏币</t>
+  </si>
+  <si>
+    <t>45万小游戏币</t>
+  </si>
+  <si>
+    <t>60万小游戏币</t>
+  </si>
+  <si>
     <t>500万小游戏币</t>
   </si>
   <si>
-    <t>500万小游戏币</t>
+    <t>prop_tiny_game_coin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30万小游戏币</t>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -255,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +284,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,21 +567,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,355 +599,435 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>400000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>2500</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>300000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>450000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>500000</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>600000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>5000000</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>10000000</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>19800</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H12" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>400000</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>450000</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>600000</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>400000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>400000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C19" s="3">
+        <v>19800</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
-        <v>450000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>500000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
-        <v>600000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>5000000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>10000000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>19800</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/jika_lottery_server.xlsx
+++ b/config_debug/jika_lottery_server.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>award_id</t>
   </si>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,467 +571,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>400000</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2500</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>300000</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2500</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>450000</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1100</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>500000</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>500</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2000</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>600000</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>500</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2000</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1500</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5000000</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1000</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10000000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>300</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>19800</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>400000</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>2500</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>1000</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>300000</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>450000</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>2000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>1100</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>500000</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>600000</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>100</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>2000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>1500</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>5000000</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>10000000</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>19800</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>100</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E20" s="2"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F20" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
